--- a/FrothEpi/Plant_host/data/flow_cytometry_host.xlsx
+++ b/FrothEpi/Plant_host/data/flow_cytometry_host.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlbaA\OneDrive\Escritorio\IMA_Fungus_submision_FrothEpi\FrothEpi_Github\Plant_host\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlbaA\OneDrive\Escritorio\IMA FUNGUS 19062025\GitHub\FrothEpi\Plant_host\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5F7A7E-C0B2-48D4-9E8E-75795836ADD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED63AC33-6231-4020-A5BB-08140B202ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,12 +227,6 @@
     <t>UZ_16.23(5)/Secale-2</t>
   </si>
   <si>
-    <t>UZ_15.23(19)/Psativ-1</t>
-  </si>
-  <si>
-    <t>UZ_15.23(19)/Psativ-2</t>
-  </si>
-  <si>
     <t>UZ_15.23(11)/Psativ-1</t>
   </si>
   <si>
@@ -600,6 +594,12 @@
   </si>
   <si>
     <t>UZ_25.23(6)/Secale-2</t>
+  </si>
+  <si>
+    <t>UZ_15.23(10)/Psativ-1</t>
+  </si>
+  <si>
+    <t>UZ_15.23(10)/Psativ-2</t>
   </si>
 </sst>
 </file>
@@ -724,19 +724,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1066,7 +1066,9 @@
   </sheetPr>
   <dimension ref="A1:P113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.21875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1094,10 +1096,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1124,27 +1126,27 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>172</v>
+      <c r="B2" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4">
         <v>6677</v>
@@ -1171,28 +1173,28 @@
       <c r="K2" s="4">
         <v>1.96</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="9">
         <f>(SUM(J2:J3))/2</f>
         <v>7.8900605218515087</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="9">
         <f>STDEV(J2:J3)</f>
         <v>0.13248896773505042</v>
       </c>
-      <c r="N2" s="7">
+      <c r="N2" s="9">
         <f>AVERAGE(L2:L31)</f>
         <v>7.5397596643316893</v>
       </c>
-      <c r="O2" s="7">
+      <c r="O2" s="9">
         <f>STDEV(L2:L31)</f>
         <v>0.20933645662387793</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4">
         <v>6339</v>
@@ -1219,20 +1221,20 @@
       <c r="K3" s="4">
         <v>1.96</v>
       </c>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>172</v>
+      <c r="B4" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="4">
         <v>5322</v>
@@ -1259,22 +1261,22 @@
       <c r="K4" s="4">
         <v>1.96</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="9">
         <f>(SUM(J4:J5))/2</f>
         <v>7.8166867370052531</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="9">
         <f>STDEV(J4:J5)</f>
         <v>4.790511166080752E-2</v>
       </c>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="4">
         <v>5547</v>
@@ -1301,20 +1303,20 @@
       <c r="K5" s="4">
         <v>1.96</v>
       </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>172</v>
+      <c r="B6" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D6" s="4">
         <v>11575</v>
@@ -1341,22 +1343,22 @@
       <c r="K6" s="4">
         <v>1.96</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="9">
         <f>(SUM(J6:J7))/2</f>
         <v>7.6634925567562835</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="9">
         <f>STDEV(J6:J7)</f>
         <v>6.3925026565271367E-2</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="4">
         <v>9218</v>
@@ -1383,20 +1385,20 @@
       <c r="K7" s="4">
         <v>1.96</v>
       </c>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>172</v>
+      <c r="B8" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="4">
         <v>5059</v>
@@ -1423,22 +1425,22 @@
       <c r="K8" s="4">
         <v>1.96</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="9">
         <f>(SUM(J8:J9))/2</f>
         <v>7.7004673933046917</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="9">
         <f>STDEV(J8:J9)</f>
         <v>8.6637954781665666E-2</v>
       </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D9" s="4">
         <v>5052</v>
@@ -1465,20 +1467,20 @@
       <c r="K9" s="4">
         <v>1.96</v>
       </c>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>172</v>
+      <c r="B10" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D10" s="4">
         <v>6357</v>
@@ -1505,22 +1507,22 @@
       <c r="K10" s="4">
         <v>1.96</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="9">
         <f>(SUM(J10:J11))/2</f>
         <v>7.5028311384103308</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="9">
         <f>STDEV(J10:J11)</f>
         <v>0.25705462369731763</v>
       </c>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D11" s="4">
         <v>5723</v>
@@ -1547,20 +1549,20 @@
       <c r="K11" s="4">
         <v>1.96</v>
       </c>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>172</v>
+      <c r="B12" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D12" s="4">
         <v>7369</v>
@@ -1587,22 +1589,22 @@
       <c r="K12" s="4">
         <v>1.96</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="9">
         <f>(SUM(J12:J13))/2</f>
         <v>7.2486219865761328</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="9">
         <f>STDEV(J12:J13)</f>
         <v>1.6023436669575085E-2</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="4">
         <v>5170</v>
@@ -1629,20 +1631,20 @@
       <c r="K13" s="4">
         <v>1.96</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>172</v>
+      <c r="B14" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D14" s="4">
         <v>7299</v>
@@ -1669,22 +1671,22 @@
       <c r="K14" s="4">
         <v>1.96</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="9">
         <f>(SUM(J14:J15))/2</f>
         <v>7.4499352113236963</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="9">
         <f>STDEV(J14:J15)</f>
         <v>1.6345034047548897E-2</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="4">
         <v>6116</v>
@@ -1711,20 +1713,20 @@
       <c r="K15" s="4">
         <v>1.96</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>172</v>
+      <c r="B16" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D16" s="4">
         <v>8943</v>
@@ -1751,22 +1753,22 @@
       <c r="K16" s="4">
         <v>1.96</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="9">
         <f>(SUM(J16:J17))/2</f>
         <v>7.3146983782802382</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="9">
         <f>STDEV(J16:J17)</f>
         <v>7.4022455679739863E-2</v>
       </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
       <c r="C17" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D17" s="4">
         <v>19481</v>
@@ -1793,20 +1795,20 @@
       <c r="K17" s="4">
         <v>1.96</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>172</v>
+      <c r="B18" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D18" s="4">
         <v>14445</v>
@@ -1833,22 +1835,22 @@
       <c r="K18" s="4">
         <v>1.96</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="9">
         <f>(SUM(J18:J19))/2</f>
         <v>7.629147325328252</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="9">
         <f>STDEV(J18:J19)</f>
         <v>0.34277651733736375</v>
       </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D19" s="4">
         <v>6758</v>
@@ -1875,20 +1877,20 @@
       <c r="K19" s="4">
         <v>1.96</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>172</v>
+      <c r="B20" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="4">
         <v>11034</v>
@@ -1915,22 +1917,22 @@
       <c r="K20" s="4">
         <v>1.96</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="9">
         <f>(SUM(J20:J21))/2</f>
         <v>7.175937283044461</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="9">
         <f>STDEV(J20:J21)</f>
         <v>7.5390152604940891E-2</v>
       </c>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
       <c r="C21" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D21" s="4">
         <v>6455</v>
@@ -1957,20 +1959,20 @@
       <c r="K21" s="4">
         <v>1.96</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>172</v>
+      <c r="B22" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D22" s="4">
         <v>8171</v>
@@ -1997,22 +1999,22 @@
       <c r="K22" s="4">
         <v>1.96</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="9">
         <f>(SUM(J22:J23))/2</f>
         <v>7.5426211476830209</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="9">
         <f>STDEV(J22:J23)</f>
         <v>5.1203822910639192E-3</v>
       </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="C23" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D23" s="4">
         <v>14484</v>
@@ -2039,20 +2041,20 @@
       <c r="K23" s="4">
         <v>1.96</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>172</v>
+      <c r="B24" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D24" s="4">
         <v>6617</v>
@@ -2079,22 +2081,22 @@
       <c r="K24" s="4">
         <v>1.96</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="9">
         <f>(SUM(J24:J25))/2</f>
         <v>7.4318952843488795</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="9">
         <f>STDEV(J24:J25)</f>
         <v>5.2007774106004732E-2</v>
       </c>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="11"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="4">
         <v>5034</v>
@@ -2121,20 +2123,20 @@
       <c r="K25" s="4">
         <v>1.96</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>172</v>
+      <c r="B26" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D26" s="4">
         <v>10597</v>
@@ -2161,22 +2163,22 @@
       <c r="K26" s="4">
         <v>1.96</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="9">
         <f>(SUM(J26:J27))/2</f>
         <v>7.5776892700581815</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="9">
         <f>STDEV(J26:J27)</f>
         <v>3.6160248477897408E-2</v>
       </c>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" s="4">
         <v>12365</v>
@@ -2203,20 +2205,20 @@
       <c r="K27" s="4">
         <v>1.96</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>172</v>
+      <c r="B28" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D28" s="4">
         <v>16228</v>
@@ -2243,22 +2245,22 @@
       <c r="K28" s="4">
         <v>1.96</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="9">
         <f>(SUM(J28:J29))/2</f>
         <v>7.7659378894826769</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="9">
         <f>STDEV(J28:J29)</f>
         <v>6.3654183709208945E-2</v>
       </c>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D29" s="4">
         <v>12884</v>
@@ -2285,20 +2287,20 @@
       <c r="K29" s="4">
         <v>1.96</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>172</v>
+      <c r="B30" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D30" s="4">
         <v>12416</v>
@@ -2325,22 +2327,22 @@
       <c r="K30" s="4">
         <v>1.96</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="9">
         <f>(SUM(J30:J31))/2</f>
         <v>7.386372841521732</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="9">
         <f>STDEV(J30:J31)</f>
         <v>0.16950182593087504</v>
       </c>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D31" s="4">
         <v>6441</v>
@@ -2367,20 +2369,20 @@
       <c r="K31" s="4">
         <v>1.96</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="9"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>173</v>
+      <c r="B32" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D32" s="4">
         <v>10358</v>
@@ -2407,28 +2409,28 @@
       <c r="K32" s="4">
         <v>1.96</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="9">
         <f>(SUM(J32:J33))/2</f>
         <v>7.7041275853085232</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="9">
         <f>STDEV(J32:J33)</f>
         <v>9.0754973047312323E-2</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="9">
         <f>AVERAGE(L32:L61)</f>
         <v>7.6051601360607988</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="9">
         <f>STDEV(L32:L61)</f>
         <v>0.12856119087537007</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
       <c r="C33" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D33" s="4">
         <v>11813</v>
@@ -2455,20 +2457,20 @@
       <c r="K33" s="4">
         <v>1.96</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>173</v>
+      <c r="B34" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D34" s="4">
         <v>5113</v>
@@ -2495,22 +2497,22 @@
       <c r="K34" s="4">
         <v>1.96</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="9">
         <f>(SUM(J34:J35))/2</f>
         <v>7.4835204603584682</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="9">
         <f>STDEV(J34:J35)</f>
         <v>0.1149454824095754</v>
       </c>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D35" s="4">
         <v>7874</v>
@@ -2537,20 +2539,20 @@
       <c r="K35" s="4">
         <v>1.96</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>173</v>
+      <c r="B36" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D36" s="4">
         <v>5526</v>
@@ -2577,22 +2579,22 @@
       <c r="K36" s="4">
         <v>1.96</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="9">
         <f>(SUM(J36:J37))/2</f>
         <v>7.4546164605793237</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="9">
         <f>STDEV(J36:J37)</f>
         <v>4.1641730906482417E-3</v>
       </c>
-      <c r="N36" s="8"/>
-      <c r="O36" s="8"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D37" s="4">
         <v>6196</v>
@@ -2619,20 +2621,20 @@
       <c r="K37" s="4">
         <v>1.96</v>
       </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="8"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>173</v>
+      <c r="B38" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" s="4">
         <v>10826</v>
@@ -2659,22 +2661,22 @@
       <c r="K38" s="4">
         <v>1.96</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="9">
         <f>(SUM(J38:J39))/2</f>
         <v>7.9032553440251423</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="9">
         <f>STDEV(J38:J39)</f>
         <v>2.2308828439792039E-2</v>
       </c>
-      <c r="N38" s="8"/>
-      <c r="O38" s="8"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D39" s="4">
         <v>7434</v>
@@ -2701,20 +2703,20 @@
       <c r="K39" s="4">
         <v>1.96</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="8"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>173</v>
+      <c r="B40" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D40" s="4">
         <v>5220</v>
@@ -2741,22 +2743,22 @@
       <c r="K40" s="4">
         <v>1.96</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="9">
         <f>(SUM(J40:J41))/2</f>
         <v>7.648282752072797</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="9">
         <f>STDEV(J40:J41)</f>
         <v>3.8620619238544991E-2</v>
       </c>
-      <c r="N40" s="8"/>
-      <c r="O40" s="8"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
       <c r="C41" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D41" s="4">
         <v>5985</v>
@@ -2783,20 +2785,20 @@
       <c r="K41" s="4">
         <v>1.96</v>
       </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="8"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>173</v>
+      <c r="B42" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D42" s="4">
         <v>5984</v>
@@ -2823,22 +2825,22 @@
       <c r="K42" s="4">
         <v>1.96</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="9">
         <f>(SUM(J42:J43))/2</f>
         <v>7.732259630609768</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="9">
         <f>STDEV(J42:J43)</f>
         <v>0.10632122125889627</v>
       </c>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
       <c r="C43" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D43" s="4">
         <v>5767</v>
@@ -2865,20 +2867,20 @@
       <c r="K43" s="4">
         <v>1.96</v>
       </c>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>173</v>
+      <c r="B44" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D44" s="4">
         <v>7784</v>
@@ -2905,22 +2907,22 @@
       <c r="K44" s="4">
         <v>1.96</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="9">
         <f>(SUM(J44:J45))/2</f>
         <v>7.4567827517785945</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="9">
         <f>STDEV(J44:J45)</f>
         <v>7.1042143815395947E-2</v>
       </c>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
       <c r="C45" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D45" s="4">
         <v>7396</v>
@@ -2947,20 +2949,20 @@
       <c r="K45" s="4">
         <v>1.96</v>
       </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="11"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>173</v>
+      <c r="B46" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D46" s="4">
         <v>7537</v>
@@ -2987,22 +2989,22 @@
       <c r="K46" s="4">
         <v>1.96</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="9">
         <f>(SUM(J46:J47))/2</f>
         <v>7.6230821454288247</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="9">
         <f>STDEV(J46:J47)</f>
         <v>1.8124393234134638E-2</v>
       </c>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="11"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
       <c r="C47" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D47" s="4">
         <v>6121</v>
@@ -3029,20 +3031,20 @@
       <c r="K47" s="4">
         <v>1.96</v>
       </c>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="8"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="11"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>173</v>
+      <c r="B48" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D48" s="4">
         <v>9902</v>
@@ -3069,22 +3071,22 @@
       <c r="K48" s="4">
         <v>1.96</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="9">
         <f>(SUM(J48:J49))/2</f>
         <v>7.5673999093065847</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="9">
         <f>STDEV(J48:J49)</f>
         <v>3.8052208546812558E-2</v>
       </c>
-      <c r="N48" s="8"/>
-      <c r="O48" s="8"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="11"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
       <c r="C49" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D49" s="4">
         <v>6918</v>
@@ -3111,20 +3113,20 @@
       <c r="K49" s="4">
         <v>1.96</v>
       </c>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="8"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="11"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>173</v>
+      <c r="B50" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D50" s="4">
         <v>9283</v>
@@ -3151,22 +3153,22 @@
       <c r="K50" s="4">
         <v>1.96</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="9">
         <f>(SUM(J50:J51))/2</f>
         <v>7.4973101782303564</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="9">
         <f>STDEV(J50:J51)</f>
         <v>1.6934503819574648E-2</v>
       </c>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D51" s="4">
         <v>9306</v>
@@ -3193,20 +3195,20 @@
       <c r="K51" s="4">
         <v>1.96</v>
       </c>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="11"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>173</v>
+      <c r="B52" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D52" s="4">
         <v>10255</v>
@@ -3233,22 +3235,22 @@
       <c r="K52" s="4">
         <v>1.96</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="9">
         <f>(SUM(J52:J53))/2</f>
         <v>7.5974077148582113</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="9">
         <f>STDEV(J52:J53)</f>
         <v>5.7508885570735149E-2</v>
       </c>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
       <c r="C53" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D53" s="4">
         <v>13683</v>
@@ -3275,20 +3277,20 @@
       <c r="K53" s="4">
         <v>1.96</v>
       </c>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="11"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>173</v>
+      <c r="B54" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D54" s="4">
         <v>11791</v>
@@ -3315,22 +3317,22 @@
       <c r="K54" s="4">
         <v>1.96</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="9">
         <f>(SUM(J54:J55))/2</f>
         <v>7.7366394213854797</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="9">
         <f>STDEV(J54:J55)</f>
         <v>0.102563103143565</v>
       </c>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="11"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
       <c r="C55" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D55" s="4">
         <v>9747</v>
@@ -3357,20 +3359,20 @@
       <c r="K55" s="4">
         <v>1.96</v>
       </c>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>173</v>
+      <c r="B56" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D56" s="4">
         <v>16884</v>
@@ -3397,22 +3399,22 @@
       <c r="K56" s="4">
         <v>1.96</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="9">
         <f>(SUM(J56:J57))/2</f>
         <v>7.5475404579609346</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="9">
         <f>STDEV(J56:J57)</f>
         <v>3.4608773907466528E-2</v>
       </c>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
       <c r="C57" s="4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D57" s="4">
         <v>24387</v>
@@ -3439,20 +3441,20 @@
       <c r="K57" s="4">
         <v>1.96</v>
       </c>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>173</v>
+      <c r="B58" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D58" s="4">
         <v>6633</v>
@@ -3479,22 +3481,22 @@
       <c r="K58" s="4">
         <v>1.96</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="9">
         <f>(SUM(J58:J59))/2</f>
         <v>7.4688419764551615</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M58" s="9">
         <f>STDEV(J58:J59)</f>
         <v>1.5348188665174695E-2</v>
       </c>
-      <c r="N58" s="8"/>
-      <c r="O58" s="8"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="11"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
       <c r="C59" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D59" s="4">
         <v>13200</v>
@@ -3521,20 +3523,20 @@
       <c r="K59" s="4">
         <v>1.96</v>
       </c>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>173</v>
+      <c r="B60" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D60" s="4">
         <v>10442</v>
@@ -3561,22 +3563,22 @@
       <c r="K60" s="4">
         <v>1.96</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="9">
         <f>(SUM(J60:J61))/2</f>
         <v>7.6563352525538129</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M60" s="9">
         <f>STDEV(J60:J61)</f>
         <v>8.0161781231828752E-2</v>
       </c>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
       <c r="C61" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D61" s="4">
         <v>10093</v>
@@ -3603,20 +3605,20 @@
       <c r="K61" s="4">
         <v>1.96</v>
       </c>
-      <c r="L61" s="9"/>
-      <c r="M61" s="9"/>
-      <c r="N61" s="9"/>
-      <c r="O61" s="9"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>175</v>
+      <c r="B62" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D62" s="4">
         <v>7713</v>
@@ -3643,28 +3645,28 @@
       <c r="K62" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="9">
         <f t="shared" ref="L62" si="3">(SUM(J62:J63))/2</f>
         <v>13.144198859672652</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M62" s="9">
         <f t="shared" ref="M62" si="4">STDEV(J62:J63)</f>
         <v>0.10991622864495439</v>
       </c>
-      <c r="N62" s="7">
+      <c r="N62" s="9">
         <f>AVERAGE(L62:L91)</f>
         <v>12.814968902738137</v>
       </c>
-      <c r="O62" s="7">
+      <c r="O62" s="9">
         <f>STDEV(L62:L91)</f>
         <v>0.16391447104751647</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
       <c r="C63" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D63" s="4">
         <v>6266</v>
@@ -3691,20 +3693,20 @@
       <c r="K63" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>175</v>
+      <c r="B64" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D64" s="4">
         <v>8381</v>
@@ -3731,22 +3733,22 @@
       <c r="K64" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="9">
         <f t="shared" ref="L64" si="5">(SUM(J64:J65))/2</f>
         <v>12.792760253036937</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M64" s="9">
         <f t="shared" ref="M64" si="6">STDEV(J64:J65)</f>
         <v>3.3647436092903646E-2</v>
       </c>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65" s="11"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
       <c r="C65" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D65" s="4">
         <v>6042</v>
@@ -3773,20 +3775,20 @@
       <c r="K65" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>175</v>
+      <c r="B66" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D66" s="4">
         <v>9433</v>
@@ -3813,22 +3815,22 @@
       <c r="K66" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="9">
         <f t="shared" ref="L66" si="7">(SUM(J66:J67))/2</f>
         <v>12.948393762268479</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M66" s="9">
         <f t="shared" ref="M66" si="8">STDEV(J66:J67)</f>
         <v>5.8029347357562745E-2</v>
       </c>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D67" s="4">
         <v>9056</v>
@@ -3855,20 +3857,20 @@
       <c r="K67" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="8"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>175</v>
+      <c r="B68" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D68" s="4">
         <v>12760</v>
@@ -3895,22 +3897,22 @@
       <c r="K68" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="9">
         <f t="shared" ref="L68" si="9">(SUM(J68:J69))/2</f>
         <v>12.81276392263192</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M68" s="9">
         <f t="shared" ref="M68" si="10">STDEV(J68:J69)</f>
         <v>5.2769071153158556E-2</v>
       </c>
-      <c r="N68" s="8"/>
-      <c r="O68" s="8"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
-      <c r="B69" s="11"/>
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
       <c r="C69" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D69" s="4">
         <v>11105</v>
@@ -3937,17 +3939,17 @@
       <c r="K69" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="8"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>175</v>
+      <c r="B70" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>61</v>
@@ -3977,20 +3979,20 @@
       <c r="K70" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="9">
         <f t="shared" ref="L70" si="11">(SUM(J70:J71))/2</f>
         <v>12.82990297755067</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M70" s="9">
         <f t="shared" ref="M70" si="12">STDEV(J70:J71)</f>
         <v>6.3622611986336064E-2</v>
       </c>
-      <c r="N70" s="8"/>
-      <c r="O70" s="8"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
       <c r="C71" s="4" t="s">
         <v>62</v>
       </c>
@@ -4019,17 +4021,17 @@
       <c r="K71" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="8"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>175</v>
+      <c r="B72" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>59</v>
@@ -4059,20 +4061,20 @@
       <c r="K72" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72" s="9">
         <f t="shared" ref="L72" si="13">(SUM(J72:J73))/2</f>
         <v>12.760656851414801</v>
       </c>
-      <c r="M72" s="7">
+      <c r="M72" s="9">
         <f t="shared" ref="M72" si="14">STDEV(J72:J73)</f>
         <v>2.2855663565277969E-2</v>
       </c>
-      <c r="N72" s="8"/>
-      <c r="O72" s="8"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="4" t="s">
         <v>60</v>
       </c>
@@ -4101,17 +4103,17 @@
       <c r="K73" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="8"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>175</v>
+      <c r="B74" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>57</v>
@@ -4141,20 +4143,20 @@
       <c r="K74" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L74" s="9">
         <f t="shared" ref="L74" si="15">(SUM(J74:J75))/2</f>
         <v>12.775435887938322</v>
       </c>
-      <c r="M74" s="7">
+      <c r="M74" s="9">
         <f t="shared" ref="M74" si="16">STDEV(J74:J75)</f>
         <v>5.6385578304764927E-2</v>
       </c>
-      <c r="N74" s="8"/>
-      <c r="O74" s="8"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
       <c r="C75" s="4" t="s">
         <v>58</v>
       </c>
@@ -4183,20 +4185,20 @@
       <c r="K75" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="8"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76" s="10" t="s">
-        <v>175</v>
+      <c r="A76" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D76" s="4">
         <v>10302</v>
@@ -4223,22 +4225,22 @@
       <c r="K76" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L76" s="9">
         <f t="shared" ref="L76" si="17">(SUM(J76:J77))/2</f>
         <v>12.926481675007965</v>
       </c>
-      <c r="M76" s="7">
+      <c r="M76" s="9">
         <f t="shared" ref="M76" si="18">STDEV(J76:J77)</f>
         <v>6.5221208031209774E-2</v>
       </c>
-      <c r="N76" s="8"/>
-      <c r="O76" s="8"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
       <c r="C77" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D77" s="4">
         <v>11559</v>
@@ -4265,20 +4267,20 @@
       <c r="K77" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="8"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="11"/>
+      <c r="O77" s="11"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>175</v>
+      <c r="A78" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D78" s="4">
         <v>8296</v>
@@ -4305,22 +4307,22 @@
       <c r="K78" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L78" s="9">
         <f t="shared" ref="L78" si="19">(SUM(J78:J79))/2</f>
         <v>12.873743380596164</v>
       </c>
-      <c r="M78" s="7">
+      <c r="M78" s="9">
         <f t="shared" ref="M78" si="20">STDEV(J78:J79)</f>
         <v>8.776755699517054E-2</v>
       </c>
-      <c r="N78" s="8"/>
-      <c r="O78" s="8"/>
+      <c r="N78" s="11"/>
+      <c r="O78" s="11"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
       <c r="C79" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D79" s="4">
         <v>7342</v>
@@ -4347,23 +4349,23 @@
       <c r="K79" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="8"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="11"/>
+      <c r="O79" s="11"/>
       <c r="P79" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>175</v>
+      <c r="A80" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D80" s="4">
         <v>8751</v>
@@ -4390,22 +4392,22 @@
       <c r="K80" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L80" s="9">
         <f t="shared" ref="L80" si="21">(SUM(J80:J81))/2</f>
         <v>12.607335077490411</v>
       </c>
-      <c r="M80" s="7">
+      <c r="M80" s="9">
         <f t="shared" ref="M80" si="22">STDEV(J80:J81)</f>
         <v>0.20769359571008117</v>
       </c>
-      <c r="N80" s="8"/>
-      <c r="O80" s="8"/>
+      <c r="N80" s="11"/>
+      <c r="O80" s="11"/>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
       <c r="C81" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D81" s="4">
         <v>6211</v>
@@ -4432,20 +4434,20 @@
       <c r="K81" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="11"/>
+      <c r="O81" s="11"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="B82" s="10" t="s">
-        <v>175</v>
+      <c r="A82" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D82" s="4">
         <v>10335</v>
@@ -4472,22 +4474,22 @@
       <c r="K82" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L82" s="9">
         <f t="shared" ref="L82" si="24">(SUM(J82:J83))/2</f>
         <v>12.810034106940122</v>
       </c>
-      <c r="M82" s="7">
+      <c r="M82" s="9">
         <f t="shared" ref="M82" si="25">STDEV(J82:J83)</f>
         <v>2.6258922567854739E-2</v>
       </c>
-      <c r="N82" s="8"/>
-      <c r="O82" s="8"/>
+      <c r="N82" s="11"/>
+      <c r="O82" s="11"/>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
       <c r="C83" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D83" s="4">
         <v>7382</v>
@@ -4514,20 +4516,20 @@
       <c r="K83" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="8"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="11"/>
+      <c r="O83" s="11"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>175</v>
+      <c r="A84" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D84" s="4">
         <v>10673</v>
@@ -4554,22 +4556,22 @@
       <c r="K84" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L84" s="9">
         <f t="shared" ref="L84" si="27">(SUM(J84:J85))/2</f>
         <v>12.473072936039314</v>
       </c>
-      <c r="M84" s="7">
+      <c r="M84" s="9">
         <f t="shared" ref="M84" si="28">STDEV(J84:J85)</f>
         <v>3.7233071331161889E-2</v>
       </c>
-      <c r="N84" s="8"/>
-      <c r="O84" s="8"/>
+      <c r="N84" s="11"/>
+      <c r="O84" s="11"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
       <c r="C85" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D85" s="4">
         <v>17378</v>
@@ -4596,20 +4598,20 @@
       <c r="K85" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="8"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="11"/>
+      <c r="O85" s="11"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="B86" s="10" t="s">
-        <v>175</v>
+      <c r="A86" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D86" s="4">
         <v>5053</v>
@@ -4636,22 +4638,22 @@
       <c r="K86" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="9">
         <f t="shared" ref="L86" si="29">(SUM(J86:J87))/2</f>
         <v>12.869048477736669</v>
       </c>
-      <c r="M86" s="7">
+      <c r="M86" s="9">
         <f t="shared" ref="M86" si="30">STDEV(J86:J87)</f>
         <v>4.135873057329699E-2</v>
       </c>
-      <c r="N86" s="8"/>
-      <c r="O86" s="8"/>
+      <c r="N86" s="11"/>
+      <c r="O86" s="11"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
       <c r="C87" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D87" s="4">
         <v>6092</v>
@@ -4678,20 +4680,20 @@
       <c r="K87" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="8"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="11"/>
+      <c r="O87" s="11"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B88" s="10" t="s">
-        <v>175</v>
+      <c r="A88" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D88" s="4">
         <v>15569</v>
@@ -4718,22 +4720,22 @@
       <c r="K88" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L88" s="7">
+      <c r="L88" s="9">
         <f t="shared" ref="L88" si="31">(SUM(J88:J89))/2</f>
         <v>12.981256818015229</v>
       </c>
-      <c r="M88" s="7">
+      <c r="M88" s="9">
         <f t="shared" ref="M88" si="32">STDEV(J88:J89)</f>
         <v>6.291640823283437E-2</v>
       </c>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="11"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="11"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
       <c r="C89" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D89" s="4">
         <v>11147</v>
@@ -4760,20 +4762,20 @@
       <c r="K89" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="8"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="11"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>175</v>
+      <c r="A90" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D90" s="4">
         <v>20716</v>
@@ -4800,22 +4802,22 @@
       <c r="K90" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L90" s="7">
+      <c r="L90" s="9">
         <f t="shared" ref="L90" si="33">(SUM(J90:J91))/2</f>
         <v>12.619448554732399</v>
       </c>
-      <c r="M90" s="7">
+      <c r="M90" s="9">
         <f t="shared" ref="M90" si="34">STDEV(J90:J91)</f>
         <v>0.23648068200905764</v>
       </c>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="11"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
       <c r="C91" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D91" s="4">
         <v>6987</v>
@@ -4842,20 +4844,20 @@
       <c r="K91" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>174</v>
+      <c r="B92" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D92" s="4">
         <v>7435</v>
@@ -4882,28 +4884,28 @@
       <c r="K92" s="4">
         <v>9.09</v>
       </c>
-      <c r="L92" s="7">
+      <c r="L92" s="9">
         <f>(SUM(J92:J93))/2</f>
         <v>15.731570349073934</v>
       </c>
-      <c r="M92" s="7">
+      <c r="M92" s="9">
         <f>STDEV(J92:J93)</f>
         <v>3.6403317093063797E-2</v>
       </c>
-      <c r="N92" s="7">
+      <c r="N92" s="9">
         <f>AVERAGE(L92:L113)</f>
         <v>15.581511486663283</v>
       </c>
-      <c r="O92" s="7">
+      <c r="O92" s="9">
         <f>STDEV(L92:L113)</f>
         <v>0.27575587387188127</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93" s="11"/>
-      <c r="B93" s="11"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
       <c r="C93" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D93" s="4">
         <v>6915</v>
@@ -4930,20 +4932,20 @@
       <c r="K93" s="4">
         <v>9.09</v>
       </c>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="8"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="11"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>174</v>
+      <c r="B94" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D94" s="4">
         <v>5017</v>
@@ -4970,23 +4972,23 @@
       <c r="K94" s="4">
         <v>9.09</v>
       </c>
-      <c r="L94" s="7">
+      <c r="L94" s="9">
         <f>(SUM(J94:J95))/2</f>
         <v>15.183590149207607</v>
       </c>
-      <c r="M94" s="7">
+      <c r="M94" s="9">
         <f>STDEV(J94:J95)</f>
         <v>6.8608805162073017E-2</v>
       </c>
-      <c r="N94" s="8"/>
-      <c r="O94" s="8"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="11"/>
       <c r="P94" s="6"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
       <c r="C95" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D95" s="4">
         <v>5030</v>
@@ -5013,20 +5015,20 @@
       <c r="K95" s="4">
         <v>9.09</v>
       </c>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="8"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="11"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>174</v>
+      <c r="B96" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D96" s="4">
         <v>6212</v>
@@ -5053,22 +5055,22 @@
       <c r="K96" s="4">
         <v>9.09</v>
       </c>
-      <c r="L96" s="7">
+      <c r="L96" s="9">
         <f>(SUM(J96:J97))/2</f>
         <v>15.439408423257905</v>
       </c>
-      <c r="M96" s="7">
+      <c r="M96" s="9">
         <f>STDEV(J96:J97)</f>
         <v>0.21419819419574848</v>
       </c>
-      <c r="N96" s="8"/>
-      <c r="O96" s="8"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="11"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
       <c r="C97" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D97" s="4">
         <v>6714</v>
@@ -5095,20 +5097,20 @@
       <c r="K97" s="4">
         <v>9.09</v>
       </c>
-      <c r="L97" s="9"/>
-      <c r="M97" s="9"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="8"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="11"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="10" t="s">
+      <c r="A98" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>174</v>
+      <c r="B98" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D98" s="4">
         <v>5485</v>
@@ -5135,22 +5137,22 @@
       <c r="K98" s="4">
         <v>9.09</v>
       </c>
-      <c r="L98" s="7">
+      <c r="L98" s="9">
         <f>(SUM(J98:J99))/2</f>
         <v>15.993994292538531</v>
       </c>
-      <c r="M98" s="7">
+      <c r="M98" s="9">
         <f>STDEV(J98:J99)</f>
         <v>0.10780962520683859</v>
       </c>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
       <c r="C99" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D99" s="4">
         <v>6599</v>
@@ -5177,17 +5179,17 @@
       <c r="K99" s="4">
         <v>9.09</v>
       </c>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="11"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>174</v>
+      <c r="B100" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>55</v>
@@ -5217,20 +5219,20 @@
       <c r="K100" s="4">
         <v>9.09</v>
       </c>
-      <c r="L100" s="7">
+      <c r="L100" s="9">
         <f>(SUM(J100:J101))/2</f>
         <v>15.513387114089625</v>
       </c>
-      <c r="M100" s="7">
+      <c r="M100" s="9">
         <f>STDEV(J100:J101)</f>
         <v>6.77181697276837E-2</v>
       </c>
-      <c r="N100" s="8"/>
-      <c r="O100" s="8"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="11"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="11"/>
-      <c r="B101" s="11"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
       <c r="C101" s="4" t="s">
         <v>56</v>
       </c>
@@ -5259,20 +5261,20 @@
       <c r="K101" s="4">
         <v>9.09</v>
       </c>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="8"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="11"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>174</v>
+      <c r="B102" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D102" s="4">
         <v>6153</v>
@@ -5299,22 +5301,22 @@
       <c r="K102" s="4">
         <v>9.09</v>
       </c>
-      <c r="L102" s="7">
+      <c r="L102" s="9">
         <f>(SUM(J102:J103))/2</f>
         <v>15.584658463516543</v>
       </c>
-      <c r="M102" s="7">
+      <c r="M102" s="9">
         <f>STDEV(J102:J103)</f>
         <v>2.1755939227038088E-2</v>
       </c>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="11"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
+      <c r="A103" s="8"/>
+      <c r="B103" s="8"/>
       <c r="C103" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D103" s="4">
         <v>7305</v>
@@ -5341,20 +5343,20 @@
       <c r="K103" s="4">
         <v>9.09</v>
       </c>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="8"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="11"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>174</v>
+      <c r="B104" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="D104" s="4">
         <v>5052</v>
@@ -5381,22 +5383,22 @@
       <c r="K104" s="4">
         <v>9.09</v>
       </c>
-      <c r="L104" s="7">
+      <c r="L104" s="9">
         <f>(SUM(J104:J105))/2</f>
         <v>15.427723656581454</v>
       </c>
-      <c r="M104" s="7">
+      <c r="M104" s="9">
         <f>STDEV(J104:J105)</f>
         <v>5.8306222393163876E-3</v>
       </c>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="11"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A105" s="11"/>
-      <c r="B105" s="11"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="8"/>
       <c r="C105" s="4" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
       <c r="D105" s="4">
         <v>5362</v>
@@ -5423,20 +5425,20 @@
       <c r="K105" s="4">
         <v>9.09</v>
       </c>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="8"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="11"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>174</v>
+      <c r="B106" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D106" s="4">
         <v>20197</v>
@@ -5463,22 +5465,22 @@
       <c r="K106" s="4">
         <v>9.09</v>
       </c>
-      <c r="L106" s="7">
+      <c r="L106" s="9">
         <f>(SUM(J106:J107))/2</f>
         <v>16.063138493495543</v>
       </c>
-      <c r="M106" s="7">
+      <c r="M106" s="9">
         <f>STDEV(J106:J107)</f>
         <v>5.1514839440211548E-2</v>
       </c>
-      <c r="N106" s="8"/>
-      <c r="O106" s="8"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="11"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
+      <c r="A107" s="8"/>
+      <c r="B107" s="8"/>
       <c r="C107" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D107" s="4">
         <v>14321</v>
@@ -5505,20 +5507,20 @@
       <c r="K107" s="4">
         <v>9.09</v>
       </c>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="8"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="10" t="s">
+      <c r="A108" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>174</v>
+      <c r="B108" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D108" s="4">
         <v>9990</v>
@@ -5545,22 +5547,22 @@
       <c r="K108" s="4">
         <v>9.09</v>
       </c>
-      <c r="L108" s="7">
+      <c r="L108" s="9">
         <f>(SUM(J108:J109))/2</f>
         <v>15.610966106809432</v>
       </c>
-      <c r="M108" s="7">
+      <c r="M108" s="9">
         <f>STDEV(J108:J109)</f>
         <v>6.4855731783031556E-2</v>
       </c>
-      <c r="N108" s="8"/>
-      <c r="O108" s="8"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="11"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
+      <c r="A109" s="8"/>
+      <c r="B109" s="8"/>
       <c r="C109" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D109" s="4">
         <v>10513</v>
@@ -5587,20 +5589,20 @@
       <c r="K109" s="4">
         <v>9.09</v>
       </c>
-      <c r="L109" s="9"/>
-      <c r="M109" s="9"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="8"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="11"/>
+      <c r="O109" s="11"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>174</v>
+      <c r="A110" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D110" s="4">
         <v>5882</v>
@@ -5627,22 +5629,22 @@
       <c r="K110" s="4">
         <v>9.09</v>
       </c>
-      <c r="L110" s="7">
+      <c r="L110" s="9">
         <f>(SUM(J110:J111))/2</f>
         <v>15.225947203600047</v>
       </c>
-      <c r="M110" s="7">
+      <c r="M110" s="9">
         <f>STDEV(J110:J111)</f>
         <v>9.8636517270419086E-3</v>
       </c>
-      <c r="N110" s="8"/>
-      <c r="O110" s="8"/>
+      <c r="N110" s="11"/>
+      <c r="O110" s="11"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
+      <c r="A111" s="8"/>
+      <c r="B111" s="8"/>
       <c r="C111" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D111" s="4">
         <v>5466</v>
@@ -5669,20 +5671,20 @@
       <c r="K111" s="4">
         <v>9.09</v>
       </c>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="8"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="11"/>
+      <c r="O111" s="11"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>174</v>
+      <c r="A112" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>172</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D112" s="4">
         <v>5981</v>
@@ -5709,22 +5711,22 @@
       <c r="K112" s="4">
         <v>9.09</v>
       </c>
-      <c r="L112" s="7">
+      <c r="L112" s="9">
         <f>(SUM(J112:J113))/2</f>
         <v>15.622242101125497</v>
       </c>
-      <c r="M112" s="7">
+      <c r="M112" s="9">
         <f>STDEV(J112:J113)</f>
         <v>0.16203103779959543</v>
       </c>
-      <c r="N112" s="8"/>
-      <c r="O112" s="8"/>
+      <c r="N112" s="11"/>
+      <c r="O112" s="11"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
       <c r="C113" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D113" s="4">
         <v>5027</v>
@@ -5751,105 +5753,129 @@
       <c r="K113" s="4">
         <v>9.09</v>
       </c>
-      <c r="L113" s="9"/>
-      <c r="M113" s="9"/>
-      <c r="N113" s="9"/>
-      <c r="O113" s="9"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="232">
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="L112:L113"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="L94:L95"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="N32:N61"/>
+    <mergeCell ref="O32:O61"/>
+    <mergeCell ref="N92:N113"/>
+    <mergeCell ref="O92:O113"/>
+    <mergeCell ref="N62:N91"/>
+    <mergeCell ref="O62:O91"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N2:N31"/>
+    <mergeCell ref="O2:O31"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
     <mergeCell ref="B92:B93"/>
     <mergeCell ref="A92:A93"/>
     <mergeCell ref="L92:L93"/>
@@ -5874,122 +5900,98 @@
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="L68:L69"/>
     <mergeCell ref="M68:M69"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N32:N61"/>
-    <mergeCell ref="O32:O61"/>
-    <mergeCell ref="N92:N113"/>
-    <mergeCell ref="O92:O113"/>
-    <mergeCell ref="N62:N91"/>
-    <mergeCell ref="O62:O91"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N2:N31"/>
-    <mergeCell ref="O2:O31"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="M82:M83"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/FrothEpi/Plant_host/data/flow_cytometry_host.xlsx
+++ b/FrothEpi/Plant_host/data/flow_cytometry_host.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlbaA\OneDrive\Escritorio\IMA FUNGUS 19062025\GitHub\FrothEpi\Plant_host\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED63AC33-6231-4020-A5BB-08140B202ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13392"/>
   </bookViews>
   <sheets>
     <sheet name="Flowcytometry_host" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="187">
   <si>
     <t>nucleids</t>
   </si>
@@ -356,9 +355,6 @@
     <t>UZ_10.23(4)/Lyco-2</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>UZ_11.23(2)/Lyco-1</t>
   </si>
   <si>
@@ -584,12 +580,6 @@
     <t>UZ_26.22(1)/Psativ-2</t>
   </si>
   <si>
-    <t>UZ_25.22(11)/Secale-1</t>
-  </si>
-  <si>
-    <t>UZ_25.22(11)/Secale-2</t>
-  </si>
-  <si>
     <t>UZ_25.23(6)/Secale-1</t>
   </si>
   <si>
@@ -600,12 +590,18 @@
   </si>
   <si>
     <t>UZ_15.23(10)/Psativ-2</t>
+  </si>
+  <si>
+    <t>UZ_25.22(15)/Secale-1</t>
+  </si>
+  <si>
+    <t>UZ_25.22(15)/Secale-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,7 +700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -721,22 +717,19 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,15 +1053,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P113"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.21875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1087,8 +1078,7 @@
     <col min="13" max="13" width="7.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="7.21875" style="3"/>
+    <col min="16" max="16384" width="7.21875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -1096,10 +1086,10 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1126,24 +1116,24 @@
         <v>7</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>179</v>
-      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>170</v>
+      <c r="B2" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>75</v>
@@ -1173,26 +1163,26 @@
       <c r="K2" s="4">
         <v>1.96</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="6">
         <f>(SUM(J2:J3))/2</f>
         <v>7.8900605218515087</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="6">
         <f>STDEV(J2:J3)</f>
         <v>0.13248896773505042</v>
       </c>
-      <c r="N2" s="9">
+      <c r="N2" s="6">
         <f>AVERAGE(L2:L31)</f>
         <v>7.5397596643316893</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="6">
         <f>STDEV(L2:L31)</f>
         <v>0.20933645662387793</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="4" t="s">
         <v>76</v>
       </c>
@@ -1221,17 +1211,17 @@
       <c r="K3" s="4">
         <v>1.96</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>170</v>
+      <c r="B4" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>77</v>
@@ -1261,20 +1251,20 @@
       <c r="K4" s="4">
         <v>1.96</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="6">
         <f>(SUM(J4:J5))/2</f>
         <v>7.8166867370052531</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="6">
         <f>STDEV(J4:J5)</f>
         <v>4.790511166080752E-2</v>
       </c>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="4" t="s">
         <v>78</v>
       </c>
@@ -1303,17 +1293,17 @@
       <c r="K5" s="4">
         <v>1.96</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>170</v>
+      <c r="B6" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>79</v>
@@ -1343,20 +1333,20 @@
       <c r="K6" s="4">
         <v>1.96</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="6">
         <f>(SUM(J6:J7))/2</f>
         <v>7.6634925567562835</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="6">
         <f>STDEV(J6:J7)</f>
         <v>6.3925026565271367E-2</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="4" t="s">
         <v>80</v>
       </c>
@@ -1385,17 +1375,17 @@
       <c r="K7" s="4">
         <v>1.96</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>170</v>
+      <c r="B8" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>102</v>
@@ -1425,20 +1415,20 @@
       <c r="K8" s="4">
         <v>1.96</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="6">
         <f>(SUM(J8:J9))/2</f>
         <v>7.7004673933046917</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="6">
         <f>STDEV(J8:J9)</f>
         <v>8.6637954781665666E-2</v>
       </c>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="4" t="s">
         <v>103</v>
       </c>
@@ -1467,17 +1457,17 @@
       <c r="K9" s="4">
         <v>1.96</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>170</v>
+      <c r="B10" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>104</v>
@@ -1507,20 +1497,20 @@
       <c r="K10" s="4">
         <v>1.96</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="6">
         <f>(SUM(J10:J11))/2</f>
         <v>7.5028311384103308</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="6">
         <f>STDEV(J10:J11)</f>
         <v>0.25705462369731763</v>
       </c>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="4" t="s">
         <v>105</v>
       </c>
@@ -1549,17 +1539,17 @@
       <c r="K11" s="4">
         <v>1.96</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>170</v>
+      <c r="B12" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>81</v>
@@ -1589,20 +1579,20 @@
       <c r="K12" s="4">
         <v>1.96</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="6">
         <f>(SUM(J12:J13))/2</f>
         <v>7.2486219865761328</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="6">
         <f>STDEV(J12:J13)</f>
         <v>1.6023436669575085E-2</v>
       </c>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="4" t="s">
         <v>82</v>
       </c>
@@ -1631,20 +1621,20 @@
       <c r="K13" s="4">
         <v>1.96</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>170</v>
+      <c r="B14" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D14" s="4">
         <v>7299</v>
@@ -1671,22 +1661,22 @@
       <c r="K14" s="4">
         <v>1.96</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="6">
         <f>(SUM(J14:J15))/2</f>
         <v>7.4499352113236963</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="6">
         <f>STDEV(J14:J15)</f>
         <v>1.6345034047548897E-2</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D15" s="4">
         <v>6116</v>
@@ -1713,20 +1703,20 @@
       <c r="K15" s="4">
         <v>1.96</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>170</v>
+      <c r="B16" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D16" s="4">
         <v>8943</v>
@@ -1753,22 +1743,22 @@
       <c r="K16" s="4">
         <v>1.96</v>
       </c>
-      <c r="L16" s="9">
+      <c r="L16" s="6">
         <f>(SUM(J16:J17))/2</f>
         <v>7.3146983782802382</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="6">
         <f>STDEV(J16:J17)</f>
         <v>7.4022455679739863E-2</v>
       </c>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="4">
         <v>19481</v>
@@ -1795,20 +1785,20 @@
       <c r="K17" s="4">
         <v>1.96</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>170</v>
+      <c r="B18" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="4">
         <v>14445</v>
@@ -1835,22 +1825,22 @@
       <c r="K18" s="4">
         <v>1.96</v>
       </c>
-      <c r="L18" s="9">
+      <c r="L18" s="6">
         <f>(SUM(J18:J19))/2</f>
         <v>7.629147325328252</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="6">
         <f>STDEV(J18:J19)</f>
         <v>0.34277651733736375</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D19" s="4">
         <v>6758</v>
@@ -1877,17 +1867,17 @@
       <c r="K19" s="4">
         <v>1.96</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>170</v>
+      <c r="B20" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>83</v>
@@ -1917,20 +1907,20 @@
       <c r="K20" s="4">
         <v>1.96</v>
       </c>
-      <c r="L20" s="9">
+      <c r="L20" s="6">
         <f>(SUM(J20:J21))/2</f>
         <v>7.175937283044461</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="6">
         <f>STDEV(J20:J21)</f>
         <v>7.5390152604940891E-2</v>
       </c>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="4" t="s">
         <v>84</v>
       </c>
@@ -1959,20 +1949,20 @@
       <c r="K21" s="4">
         <v>1.96</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>170</v>
+      <c r="B22" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" s="4">
         <v>8171</v>
@@ -1999,22 +1989,22 @@
       <c r="K22" s="4">
         <v>1.96</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L22" s="6">
         <f>(SUM(J22:J23))/2</f>
         <v>7.5426211476830209</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="6">
         <f>STDEV(J22:J23)</f>
         <v>5.1203822910639192E-3</v>
       </c>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D23" s="4">
         <v>14484</v>
@@ -2041,17 +2031,17 @@
       <c r="K23" s="4">
         <v>1.96</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>170</v>
+      <c r="B24" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>85</v>
@@ -2081,20 +2071,20 @@
       <c r="K24" s="4">
         <v>1.96</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="6">
         <f>(SUM(J24:J25))/2</f>
         <v>7.4318952843488795</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="6">
         <f>STDEV(J24:J25)</f>
         <v>5.2007774106004732E-2</v>
       </c>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="4" t="s">
         <v>86</v>
       </c>
@@ -2123,20 +2113,20 @@
       <c r="K25" s="4">
         <v>1.96</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>170</v>
+      <c r="B26" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D26" s="4">
         <v>10597</v>
@@ -2163,22 +2153,22 @@
       <c r="K26" s="4">
         <v>1.96</v>
       </c>
-      <c r="L26" s="9">
+      <c r="L26" s="6">
         <f>(SUM(J26:J27))/2</f>
         <v>7.5776892700581815</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="6">
         <f>STDEV(J26:J27)</f>
         <v>3.6160248477897408E-2</v>
       </c>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" s="4">
         <v>12365</v>
@@ -2205,20 +2195,20 @@
       <c r="K27" s="4">
         <v>1.96</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>170</v>
+      <c r="B28" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D28" s="4">
         <v>16228</v>
@@ -2245,22 +2235,22 @@
       <c r="K28" s="4">
         <v>1.96</v>
       </c>
-      <c r="L28" s="9">
+      <c r="L28" s="6">
         <f>(SUM(J28:J29))/2</f>
         <v>7.7659378894826769</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="6">
         <f>STDEV(J28:J29)</f>
         <v>6.3654183709208945E-2</v>
       </c>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D29" s="4">
         <v>12884</v>
@@ -2287,20 +2277,20 @@
       <c r="K29" s="4">
         <v>1.96</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>170</v>
+      <c r="B30" s="9" t="s">
+        <v>169</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D30" s="4">
         <v>12416</v>
@@ -2327,22 +2317,22 @@
       <c r="K30" s="4">
         <v>1.96</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="6">
         <f>(SUM(J30:J31))/2</f>
         <v>7.386372841521732</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="6">
         <f>STDEV(J30:J31)</f>
         <v>0.16950182593087504</v>
       </c>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D31" s="4">
         <v>6441</v>
@@ -2369,20 +2359,20 @@
       <c r="K31" s="4">
         <v>1.96</v>
       </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>171</v>
+      <c r="B32" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D32" s="4">
         <v>10358</v>
@@ -2409,28 +2399,28 @@
       <c r="K32" s="4">
         <v>1.96</v>
       </c>
-      <c r="L32" s="9">
+      <c r="L32" s="6">
         <f>(SUM(J32:J33))/2</f>
         <v>7.7041275853085232</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="6">
         <f>STDEV(J32:J33)</f>
         <v>9.0754973047312323E-2</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="6">
         <f>AVERAGE(L32:L61)</f>
         <v>7.6051601360607988</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="6">
         <f>STDEV(L32:L61)</f>
         <v>0.12856119087537007</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D33" s="4">
         <v>11813</v>
@@ -2457,20 +2447,20 @@
       <c r="K33" s="4">
         <v>1.96</v>
       </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>171</v>
+      <c r="B34" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D34" s="4">
         <v>5113</v>
@@ -2497,22 +2487,22 @@
       <c r="K34" s="4">
         <v>1.96</v>
       </c>
-      <c r="L34" s="9">
+      <c r="L34" s="6">
         <f>(SUM(J34:J35))/2</f>
         <v>7.4835204603584682</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="6">
         <f>STDEV(J34:J35)</f>
         <v>0.1149454824095754</v>
       </c>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D35" s="4">
         <v>7874</v>
@@ -2539,20 +2529,20 @@
       <c r="K35" s="4">
         <v>1.96</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>171</v>
+      <c r="B36" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" s="4">
         <v>5526</v>
@@ -2579,22 +2569,22 @@
       <c r="K36" s="4">
         <v>1.96</v>
       </c>
-      <c r="L36" s="9">
+      <c r="L36" s="6">
         <f>(SUM(J36:J37))/2</f>
         <v>7.4546164605793237</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="6">
         <f>STDEV(J36:J37)</f>
         <v>4.1641730906482417E-3</v>
       </c>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" s="4">
         <v>6196</v>
@@ -2621,20 +2611,20 @@
       <c r="K37" s="4">
         <v>1.96</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>171</v>
+      <c r="B38" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="4">
         <v>10826</v>
@@ -2661,22 +2651,22 @@
       <c r="K38" s="4">
         <v>1.96</v>
       </c>
-      <c r="L38" s="9">
+      <c r="L38" s="6">
         <f>(SUM(J38:J39))/2</f>
         <v>7.9032553440251423</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="6">
         <f>STDEV(J38:J39)</f>
         <v>2.2308828439792039E-2</v>
       </c>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D39" s="4">
         <v>7434</v>
@@ -2703,20 +2693,20 @@
       <c r="K39" s="4">
         <v>1.96</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>171</v>
+      <c r="B40" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="4">
         <v>5220</v>
@@ -2743,22 +2733,22 @@
       <c r="K40" s="4">
         <v>1.96</v>
       </c>
-      <c r="L40" s="9">
+      <c r="L40" s="6">
         <f>(SUM(J40:J41))/2</f>
         <v>7.648282752072797</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="6">
         <f>STDEV(J40:J41)</f>
         <v>3.8620619238544991E-2</v>
       </c>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
       <c r="C41" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="4">
         <v>5985</v>
@@ -2785,20 +2775,20 @@
       <c r="K41" s="4">
         <v>1.96</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="11"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>171</v>
+      <c r="B42" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D42" s="4">
         <v>5984</v>
@@ -2825,22 +2815,22 @@
       <c r="K42" s="4">
         <v>1.96</v>
       </c>
-      <c r="L42" s="9">
+      <c r="L42" s="6">
         <f>(SUM(J42:J43))/2</f>
         <v>7.732259630609768</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="6">
         <f>STDEV(J42:J43)</f>
         <v>0.10632122125889627</v>
       </c>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D43" s="4">
         <v>5767</v>
@@ -2867,17 +2857,17 @@
       <c r="K43" s="4">
         <v>1.96</v>
       </c>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="11"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>171</v>
+      <c r="B44" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>87</v>
@@ -2907,20 +2897,20 @@
       <c r="K44" s="4">
         <v>1.96</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L44" s="6">
         <f>(SUM(J44:J45))/2</f>
         <v>7.4567827517785945</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="6">
         <f>STDEV(J44:J45)</f>
         <v>7.1042143815395947E-2</v>
       </c>
-      <c r="N44" s="11"/>
-      <c r="O44" s="11"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
       <c r="C45" s="4" t="s">
         <v>88</v>
       </c>
@@ -2949,20 +2939,20 @@
       <c r="K45" s="4">
         <v>1.96</v>
       </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="11"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>171</v>
+      <c r="B46" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="4">
         <v>7537</v>
@@ -2989,22 +2979,22 @@
       <c r="K46" s="4">
         <v>1.96</v>
       </c>
-      <c r="L46" s="9">
+      <c r="L46" s="6">
         <f>(SUM(J46:J47))/2</f>
         <v>7.6230821454288247</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="6">
         <f>STDEV(J46:J47)</f>
         <v>1.8124393234134638E-2</v>
       </c>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
       <c r="C47" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="4">
         <v>6121</v>
@@ -3031,20 +3021,20 @@
       <c r="K47" s="4">
         <v>1.96</v>
       </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>171</v>
+      <c r="B48" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="4">
         <v>9902</v>
@@ -3071,22 +3061,22 @@
       <c r="K48" s="4">
         <v>1.96</v>
       </c>
-      <c r="L48" s="9">
+      <c r="L48" s="6">
         <f>(SUM(J48:J49))/2</f>
         <v>7.5673999093065847</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="6">
         <f>STDEV(J48:J49)</f>
         <v>3.8052208546812558E-2</v>
       </c>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
       <c r="C49" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="4">
         <v>6918</v>
@@ -3113,20 +3103,20 @@
       <c r="K49" s="4">
         <v>1.96</v>
       </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="11"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>171</v>
+      <c r="B50" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D50" s="4">
         <v>9283</v>
@@ -3153,22 +3143,22 @@
       <c r="K50" s="4">
         <v>1.96</v>
       </c>
-      <c r="L50" s="9">
+      <c r="L50" s="6">
         <f>(SUM(J50:J51))/2</f>
         <v>7.4973101782303564</v>
       </c>
-      <c r="M50" s="9">
+      <c r="M50" s="6">
         <f>STDEV(J50:J51)</f>
         <v>1.6934503819574648E-2</v>
       </c>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="8"/>
-      <c r="B51" s="8"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D51" s="4">
         <v>9306</v>
@@ -3195,20 +3185,20 @@
       <c r="K51" s="4">
         <v>1.96</v>
       </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="11"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>171</v>
+      <c r="B52" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D52" s="4">
         <v>10255</v>
@@ -3235,22 +3225,22 @@
       <c r="K52" s="4">
         <v>1.96</v>
       </c>
-      <c r="L52" s="9">
+      <c r="L52" s="6">
         <f>(SUM(J52:J53))/2</f>
         <v>7.5974077148582113</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="6">
         <f>STDEV(J52:J53)</f>
         <v>5.7508885570735149E-2</v>
       </c>
-      <c r="N52" s="11"/>
-      <c r="O52" s="11"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D53" s="4">
         <v>13683</v>
@@ -3277,20 +3267,20 @@
       <c r="K53" s="4">
         <v>1.96</v>
       </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>171</v>
+      <c r="B54" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D54" s="4">
         <v>11791</v>
@@ -3317,22 +3307,22 @@
       <c r="K54" s="4">
         <v>1.96</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54" s="6">
         <f>(SUM(J54:J55))/2</f>
         <v>7.7366394213854797</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M54" s="6">
         <f>STDEV(J54:J55)</f>
         <v>0.102563103143565</v>
       </c>
-      <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
       <c r="C55" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" s="4">
         <v>9747</v>
@@ -3359,20 +3349,20 @@
       <c r="K55" s="4">
         <v>1.96</v>
       </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>171</v>
+      <c r="B56" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D56" s="4">
         <v>16884</v>
@@ -3399,22 +3389,22 @@
       <c r="K56" s="4">
         <v>1.96</v>
       </c>
-      <c r="L56" s="9">
+      <c r="L56" s="6">
         <f>(SUM(J56:J57))/2</f>
         <v>7.5475404579609346</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M56" s="6">
         <f>STDEV(J56:J57)</f>
         <v>3.4608773907466528E-2</v>
       </c>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
       <c r="C57" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D57" s="4">
         <v>24387</v>
@@ -3441,20 +3431,20 @@
       <c r="K57" s="4">
         <v>1.96</v>
       </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>171</v>
+      <c r="B58" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D58" s="4">
         <v>6633</v>
@@ -3481,22 +3471,22 @@
       <c r="K58" s="4">
         <v>1.96</v>
       </c>
-      <c r="L58" s="9">
+      <c r="L58" s="6">
         <f>(SUM(J58:J59))/2</f>
         <v>7.4688419764551615</v>
       </c>
-      <c r="M58" s="9">
+      <c r="M58" s="6">
         <f>STDEV(J58:J59)</f>
         <v>1.5348188665174695E-2</v>
       </c>
-      <c r="N58" s="11"/>
-      <c r="O58" s="11"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="8"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D59" s="4">
         <v>13200</v>
@@ -3523,20 +3513,20 @@
       <c r="K59" s="4">
         <v>1.96</v>
       </c>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="11"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>171</v>
+      <c r="B60" s="9" t="s">
+        <v>170</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D60" s="4">
         <v>10442</v>
@@ -3563,22 +3553,22 @@
       <c r="K60" s="4">
         <v>1.96</v>
       </c>
-      <c r="L60" s="9">
+      <c r="L60" s="6">
         <f>(SUM(J60:J61))/2</f>
         <v>7.6563352525538129</v>
       </c>
-      <c r="M60" s="9">
+      <c r="M60" s="6">
         <f>STDEV(J60:J61)</f>
         <v>8.0161781231828752E-2</v>
       </c>
-      <c r="N60" s="11"/>
-      <c r="O60" s="11"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="8"/>
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D61" s="4">
         <v>10093</v>
@@ -3605,17 +3595,17 @@
       <c r="K61" s="4">
         <v>1.96</v>
       </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="8"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="7" t="s">
-        <v>173</v>
+      <c r="B62" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>65</v>
@@ -3645,26 +3635,26 @@
       <c r="K62" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L62" s="9">
+      <c r="L62" s="6">
         <f t="shared" ref="L62" si="3">(SUM(J62:J63))/2</f>
         <v>13.144198859672652</v>
       </c>
-      <c r="M62" s="9">
+      <c r="M62" s="6">
         <f t="shared" ref="M62" si="4">STDEV(J62:J63)</f>
         <v>0.10991622864495439</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N62" s="6">
         <f>AVERAGE(L62:L91)</f>
         <v>12.814968902738137</v>
       </c>
-      <c r="O62" s="9">
+      <c r="O62" s="6">
         <f>STDEV(L62:L91)</f>
         <v>0.16391447104751647</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="8"/>
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
       <c r="C63" s="4" t="s">
         <v>66</v>
       </c>
@@ -3693,17 +3683,17 @@
       <c r="K63" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="11"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B64" s="7" t="s">
-        <v>173</v>
+      <c r="B64" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>67</v>
@@ -3733,20 +3723,20 @@
       <c r="K64" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L64" s="9">
+      <c r="L64" s="6">
         <f t="shared" ref="L64" si="5">(SUM(J64:J65))/2</f>
         <v>12.792760253036937</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M64" s="6">
         <f t="shared" ref="M64" si="6">STDEV(J64:J65)</f>
         <v>3.3647436092903646E-2</v>
       </c>
-      <c r="N64" s="11"/>
-      <c r="O64" s="11"/>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A65" s="8"/>
-      <c r="B65" s="8"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="4" t="s">
         <v>68</v>
       </c>
@@ -3775,17 +3765,17 @@
       <c r="K65" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="11"/>
-      <c r="O65" s="11"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B66" s="7" t="s">
-        <v>173</v>
+      <c r="B66" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>69</v>
@@ -3815,20 +3805,20 @@
       <c r="K66" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L66" s="9">
+      <c r="L66" s="6">
         <f t="shared" ref="L66" si="7">(SUM(J66:J67))/2</f>
         <v>12.948393762268479</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M66" s="6">
         <f t="shared" ref="M66" si="8">STDEV(J66:J67)</f>
         <v>5.8029347357562745E-2</v>
       </c>
-      <c r="N66" s="11"/>
-      <c r="O66" s="11"/>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="4" t="s">
         <v>70</v>
       </c>
@@ -3857,20 +3847,20 @@
       <c r="K67" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="11"/>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A68" s="7" t="s">
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>173</v>
+      <c r="B68" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D68" s="4">
         <v>12760</v>
@@ -3897,22 +3887,22 @@
       <c r="K68" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L68" s="9">
+      <c r="L68" s="6">
         <f t="shared" ref="L68" si="9">(SUM(J68:J69))/2</f>
         <v>12.81276392263192</v>
       </c>
-      <c r="M68" s="9">
+      <c r="M68" s="6">
         <f t="shared" ref="M68" si="10">STDEV(J68:J69)</f>
         <v>5.2769071153158556E-2</v>
       </c>
-      <c r="N68" s="11"/>
-      <c r="O68" s="11"/>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
       <c r="C69" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D69" s="4">
         <v>11105</v>
@@ -3939,17 +3929,17 @@
       <c r="K69" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="11"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A70" s="7" t="s">
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>173</v>
+      <c r="B70" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>61</v>
@@ -3979,20 +3969,20 @@
       <c r="K70" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L70" s="9">
+      <c r="L70" s="6">
         <f t="shared" ref="L70" si="11">(SUM(J70:J71))/2</f>
         <v>12.82990297755067</v>
       </c>
-      <c r="M70" s="9">
+      <c r="M70" s="6">
         <f t="shared" ref="M70" si="12">STDEV(J70:J71)</f>
         <v>6.3622611986336064E-2</v>
       </c>
-      <c r="N70" s="11"/>
-      <c r="O70" s="11"/>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="8"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="4" t="s">
         <v>62</v>
       </c>
@@ -4021,17 +4011,17 @@
       <c r="K71" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="11"/>
-      <c r="O71" s="11"/>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>173</v>
+      <c r="B72" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>59</v>
@@ -4061,20 +4051,20 @@
       <c r="K72" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L72" s="9">
+      <c r="L72" s="6">
         <f t="shared" ref="L72" si="13">(SUM(J72:J73))/2</f>
         <v>12.760656851414801</v>
       </c>
-      <c r="M72" s="9">
+      <c r="M72" s="6">
         <f t="shared" ref="M72" si="14">STDEV(J72:J73)</f>
         <v>2.2855663565277969E-2</v>
       </c>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
       <c r="C73" s="4" t="s">
         <v>60</v>
       </c>
@@ -4103,17 +4093,17 @@
       <c r="K73" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="11"/>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="7" t="s">
-        <v>173</v>
+      <c r="B74" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>57</v>
@@ -4143,20 +4133,20 @@
       <c r="K74" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L74" s="9">
+      <c r="L74" s="6">
         <f t="shared" ref="L74" si="15">(SUM(J74:J75))/2</f>
         <v>12.775435887938322</v>
       </c>
-      <c r="M74" s="9">
+      <c r="M74" s="6">
         <f t="shared" ref="M74" si="16">STDEV(J74:J75)</f>
         <v>5.6385578304764927E-2</v>
       </c>
-      <c r="N74" s="11"/>
-      <c r="O74" s="11"/>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A75" s="8"/>
-      <c r="B75" s="8"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="4" t="s">
         <v>58</v>
       </c>
@@ -4185,20 +4175,20 @@
       <c r="K75" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="11"/>
-      <c r="O75" s="11"/>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>173</v>
+      <c r="B76" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D76" s="4">
         <v>10302</v>
@@ -4225,22 +4215,22 @@
       <c r="K76" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L76" s="9">
+      <c r="L76" s="6">
         <f t="shared" ref="L76" si="17">(SUM(J76:J77))/2</f>
         <v>12.926481675007965</v>
       </c>
-      <c r="M76" s="9">
+      <c r="M76" s="6">
         <f t="shared" ref="M76" si="18">STDEV(J76:J77)</f>
         <v>6.5221208031209774E-2</v>
       </c>
-      <c r="N76" s="11"/>
-      <c r="O76" s="11"/>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
       <c r="C77" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D77" s="4">
         <v>11559</v>
@@ -4267,20 +4257,20 @@
       <c r="K77" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="11"/>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B78" s="7" t="s">
-        <v>173</v>
+      <c r="B78" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="4">
         <v>8296</v>
@@ -4307,22 +4297,22 @@
       <c r="K78" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L78" s="9">
+      <c r="L78" s="6">
         <f t="shared" ref="L78" si="19">(SUM(J78:J79))/2</f>
         <v>12.873743380596164</v>
       </c>
-      <c r="M78" s="9">
+      <c r="M78" s="6">
         <f t="shared" ref="M78" si="20">STDEV(J78:J79)</f>
         <v>8.776755699517054E-2</v>
       </c>
-      <c r="N78" s="11"/>
-      <c r="O78" s="11"/>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
       <c r="C79" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D79" s="4">
         <v>7342</v>
@@ -4349,23 +4339,20 @@
       <c r="K79" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="11"/>
-      <c r="P79" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>173</v>
+      <c r="B80" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D80" s="4">
         <v>8751</v>
@@ -4392,22 +4379,22 @@
       <c r="K80" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L80" s="9">
+      <c r="L80" s="6">
         <f t="shared" ref="L80" si="21">(SUM(J80:J81))/2</f>
         <v>12.607335077490411</v>
       </c>
-      <c r="M80" s="9">
+      <c r="M80" s="6">
         <f t="shared" ref="M80" si="22">STDEV(J80:J81)</f>
         <v>0.20769359571008117</v>
       </c>
-      <c r="N80" s="11"/>
-      <c r="O80" s="11"/>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
       <c r="C81" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D81" s="4">
         <v>6211</v>
@@ -4434,20 +4421,20 @@
       <c r="K81" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="11"/>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82" s="7" t="s">
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>167</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>168</v>
       </c>
       <c r="D82" s="4">
         <v>10335</v>
@@ -4474,22 +4461,22 @@
       <c r="K82" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L82" s="9">
+      <c r="L82" s="6">
         <f t="shared" ref="L82" si="24">(SUM(J82:J83))/2</f>
         <v>12.810034106940122</v>
       </c>
-      <c r="M82" s="9">
+      <c r="M82" s="6">
         <f t="shared" ref="M82" si="25">STDEV(J82:J83)</f>
         <v>2.6258922567854739E-2</v>
       </c>
-      <c r="N82" s="11"/>
-      <c r="O82" s="11"/>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D83" s="4">
         <v>7382</v>
@@ -4516,20 +4503,20 @@
       <c r="K83" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="11"/>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="7" t="s">
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B84" s="7" t="s">
-        <v>173</v>
+      <c r="B84" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D84" s="4">
         <v>10673</v>
@@ -4556,22 +4543,22 @@
       <c r="K84" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L84" s="9">
+      <c r="L84" s="6">
         <f t="shared" ref="L84" si="27">(SUM(J84:J85))/2</f>
         <v>12.473072936039314</v>
       </c>
-      <c r="M84" s="9">
+      <c r="M84" s="6">
         <f t="shared" ref="M84" si="28">STDEV(J84:J85)</f>
         <v>3.7233071331161889E-2</v>
       </c>
-      <c r="N84" s="11"/>
-      <c r="O84" s="11"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
       <c r="C85" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D85" s="4">
         <v>17378</v>
@@ -4598,20 +4585,20 @@
       <c r="K85" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="11"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>173</v>
+      <c r="B86" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D86" s="4">
         <v>5053</v>
@@ -4638,22 +4625,22 @@
       <c r="K86" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L86" s="9">
+      <c r="L86" s="6">
         <f t="shared" ref="L86" si="29">(SUM(J86:J87))/2</f>
         <v>12.869048477736669</v>
       </c>
-      <c r="M86" s="9">
+      <c r="M86" s="6">
         <f t="shared" ref="M86" si="30">STDEV(J86:J87)</f>
         <v>4.135873057329699E-2</v>
       </c>
-      <c r="N86" s="11"/>
-      <c r="O86" s="11"/>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
       <c r="C87" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D87" s="4">
         <v>6092</v>
@@ -4680,20 +4667,20 @@
       <c r="K87" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="11"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" s="7" t="s">
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>173</v>
+      <c r="B88" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D88" s="4">
         <v>15569</v>
@@ -4720,22 +4707,22 @@
       <c r="K88" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L88" s="9">
+      <c r="L88" s="6">
         <f t="shared" ref="L88" si="31">(SUM(J88:J89))/2</f>
         <v>12.981256818015229</v>
       </c>
-      <c r="M88" s="9">
+      <c r="M88" s="6">
         <f t="shared" ref="M88" si="32">STDEV(J88:J89)</f>
         <v>6.291640823283437E-2</v>
       </c>
-      <c r="N88" s="11"/>
-      <c r="O88" s="11"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
       <c r="C89" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D89" s="4">
         <v>11147</v>
@@ -4762,20 +4749,20 @@
       <c r="K89" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="11"/>
-      <c r="O89" s="11"/>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90" s="7" t="s">
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>173</v>
+      <c r="B90" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D90" s="4">
         <v>20716</v>
@@ -4802,22 +4789,22 @@
       <c r="K90" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L90" s="9">
+      <c r="L90" s="6">
         <f t="shared" ref="L90" si="33">(SUM(J90:J91))/2</f>
         <v>12.619448554732399</v>
       </c>
-      <c r="M90" s="9">
+      <c r="M90" s="6">
         <f t="shared" ref="M90" si="34">STDEV(J90:J91)</f>
         <v>0.23648068200905764</v>
       </c>
-      <c r="N90" s="11"/>
-      <c r="O90" s="11"/>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
       <c r="C91" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D91" s="4">
         <v>6987</v>
@@ -4844,17 +4831,17 @@
       <c r="K91" s="4">
         <v>16.190000000000001</v>
       </c>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A92" s="7" t="s">
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="8"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>172</v>
+      <c r="B92" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>73</v>
@@ -4884,26 +4871,26 @@
       <c r="K92" s="4">
         <v>9.09</v>
       </c>
-      <c r="L92" s="9">
+      <c r="L92" s="6">
         <f>(SUM(J92:J93))/2</f>
         <v>15.731570349073934</v>
       </c>
-      <c r="M92" s="9">
+      <c r="M92" s="6">
         <f>STDEV(J92:J93)</f>
         <v>3.6403317093063797E-2</v>
       </c>
-      <c r="N92" s="9">
+      <c r="N92" s="6">
         <f>AVERAGE(L92:L113)</f>
         <v>15.581511486663283</v>
       </c>
-      <c r="O92" s="9">
+      <c r="O92" s="6">
         <f>STDEV(L92:L113)</f>
         <v>0.27575587387188127</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
       <c r="C93" s="4" t="s">
         <v>74</v>
       </c>
@@ -4932,17 +4919,17 @@
       <c r="K93" s="4">
         <v>9.09</v>
       </c>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="11"/>
-      <c r="O93" s="11"/>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" s="7" t="s">
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="7"/>
+      <c r="O93" s="7"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>172</v>
+      <c r="B94" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>98</v>
@@ -4972,21 +4959,20 @@
       <c r="K94" s="4">
         <v>9.09</v>
       </c>
-      <c r="L94" s="9">
+      <c r="L94" s="6">
         <f>(SUM(J94:J95))/2</f>
         <v>15.183590149207607</v>
       </c>
-      <c r="M94" s="9">
+      <c r="M94" s="6">
         <f>STDEV(J94:J95)</f>
         <v>6.8608805162073017E-2</v>
       </c>
-      <c r="N94" s="11"/>
-      <c r="O94" s="11"/>
-      <c r="P94" s="6"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
+      <c r="N94" s="7"/>
+      <c r="O94" s="7"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
       <c r="C95" s="4" t="s">
         <v>99</v>
       </c>
@@ -5015,17 +5001,17 @@
       <c r="K95" s="4">
         <v>9.09</v>
       </c>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="11"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A96" s="7" t="s">
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="7"/>
+      <c r="O95" s="7"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>172</v>
+      <c r="B96" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>71</v>
@@ -5055,20 +5041,20 @@
       <c r="K96" s="4">
         <v>9.09</v>
       </c>
-      <c r="L96" s="9">
+      <c r="L96" s="6">
         <f>(SUM(J96:J97))/2</f>
         <v>15.439408423257905</v>
       </c>
-      <c r="M96" s="9">
+      <c r="M96" s="6">
         <f>STDEV(J96:J97)</f>
         <v>0.21419819419574848</v>
       </c>
-      <c r="N96" s="11"/>
-      <c r="O96" s="11"/>
+      <c r="N96" s="7"/>
+      <c r="O96" s="7"/>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="4" t="s">
         <v>72</v>
       </c>
@@ -5097,17 +5083,17 @@
       <c r="K97" s="4">
         <v>9.09</v>
       </c>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="11"/>
-      <c r="O97" s="11"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
+      <c r="N97" s="7"/>
+      <c r="O97" s="7"/>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>172</v>
+      <c r="B98" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>96</v>
@@ -5137,20 +5123,20 @@
       <c r="K98" s="4">
         <v>9.09</v>
       </c>
-      <c r="L98" s="9">
+      <c r="L98" s="6">
         <f>(SUM(J98:J99))/2</f>
         <v>15.993994292538531</v>
       </c>
-      <c r="M98" s="9">
+      <c r="M98" s="6">
         <f>STDEV(J98:J99)</f>
         <v>0.10780962520683859</v>
       </c>
-      <c r="N98" s="11"/>
-      <c r="O98" s="11"/>
+      <c r="N98" s="7"/>
+      <c r="O98" s="7"/>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
       <c r="C99" s="4" t="s">
         <v>97</v>
       </c>
@@ -5179,17 +5165,17 @@
       <c r="K99" s="4">
         <v>9.09</v>
       </c>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="11"/>
-      <c r="O99" s="11"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="7"/>
+      <c r="O99" s="7"/>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="7" t="s">
-        <v>172</v>
+      <c r="B100" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>55</v>
@@ -5219,20 +5205,20 @@
       <c r="K100" s="4">
         <v>9.09</v>
       </c>
-      <c r="L100" s="9">
+      <c r="L100" s="6">
         <f>(SUM(J100:J101))/2</f>
         <v>15.513387114089625</v>
       </c>
-      <c r="M100" s="9">
+      <c r="M100" s="6">
         <f>STDEV(J100:J101)</f>
         <v>6.77181697276837E-2</v>
       </c>
-      <c r="N100" s="11"/>
-      <c r="O100" s="11"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
       <c r="C101" s="4" t="s">
         <v>56</v>
       </c>
@@ -5261,17 +5247,17 @@
       <c r="K101" s="4">
         <v>9.09</v>
       </c>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="11"/>
-      <c r="O101" s="11"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
+      <c r="N101" s="7"/>
+      <c r="O101" s="7"/>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>172</v>
+      <c r="B102" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>100</v>
@@ -5301,20 +5287,20 @@
       <c r="K102" s="4">
         <v>9.09</v>
       </c>
-      <c r="L102" s="9">
+      <c r="L102" s="6">
         <f>(SUM(J102:J103))/2</f>
         <v>15.584658463516543</v>
       </c>
-      <c r="M102" s="9">
+      <c r="M102" s="6">
         <f>STDEV(J102:J103)</f>
         <v>2.1755939227038088E-2</v>
       </c>
-      <c r="N102" s="11"/>
-      <c r="O102" s="11"/>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
       <c r="C103" s="4" t="s">
         <v>101</v>
       </c>
@@ -5343,20 +5329,20 @@
       <c r="K103" s="4">
         <v>9.09</v>
       </c>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="11"/>
-      <c r="O103" s="11"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="7"/>
+      <c r="O103" s="7"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="7" t="s">
-        <v>172</v>
+      <c r="B104" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D104" s="4">
         <v>5052</v>
@@ -5383,22 +5369,22 @@
       <c r="K104" s="4">
         <v>9.09</v>
       </c>
-      <c r="L104" s="9">
+      <c r="L104" s="6">
         <f>(SUM(J104:J105))/2</f>
         <v>15.427723656581454</v>
       </c>
-      <c r="M104" s="9">
+      <c r="M104" s="6">
         <f>STDEV(J104:J105)</f>
         <v>5.8306222393163876E-3</v>
       </c>
-      <c r="N104" s="11"/>
-      <c r="O104" s="11"/>
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
       <c r="C105" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D105" s="4">
         <v>5362</v>
@@ -5425,17 +5411,17 @@
       <c r="K105" s="4">
         <v>9.09</v>
       </c>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="11"/>
-      <c r="O105" s="11"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
+      <c r="N105" s="7"/>
+      <c r="O105" s="7"/>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="7" t="s">
-        <v>172</v>
+      <c r="B106" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>63</v>
@@ -5465,20 +5451,20 @@
       <c r="K106" s="4">
         <v>9.09</v>
       </c>
-      <c r="L106" s="9">
+      <c r="L106" s="6">
         <f>(SUM(J106:J107))/2</f>
         <v>16.063138493495543</v>
       </c>
-      <c r="M106" s="9">
+      <c r="M106" s="6">
         <f>STDEV(J106:J107)</f>
         <v>5.1514839440211548E-2</v>
       </c>
-      <c r="N106" s="11"/>
-      <c r="O106" s="11"/>
+      <c r="N106" s="7"/>
+      <c r="O106" s="7"/>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
       <c r="C107" s="4" t="s">
         <v>64</v>
       </c>
@@ -5507,20 +5493,20 @@
       <c r="K107" s="4">
         <v>9.09</v>
       </c>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="11"/>
-      <c r="O107" s="11"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="7"/>
+      <c r="O107" s="7"/>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>172</v>
+      <c r="B108" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D108" s="4">
         <v>9990</v>
@@ -5547,22 +5533,22 @@
       <c r="K108" s="4">
         <v>9.09</v>
       </c>
-      <c r="L108" s="9">
+      <c r="L108" s="6">
         <f>(SUM(J108:J109))/2</f>
         <v>15.610966106809432</v>
       </c>
-      <c r="M108" s="9">
+      <c r="M108" s="6">
         <f>STDEV(J108:J109)</f>
         <v>6.4855731783031556E-2</v>
       </c>
-      <c r="N108" s="11"/>
-      <c r="O108" s="11"/>
+      <c r="N108" s="7"/>
+      <c r="O108" s="7"/>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
       <c r="C109" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D109" s="4">
         <v>10513</v>
@@ -5589,20 +5575,20 @@
       <c r="K109" s="4">
         <v>9.09</v>
       </c>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="11"/>
-      <c r="O109" s="11"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="7"/>
+      <c r="O109" s="7"/>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>172</v>
+      <c r="A110" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>171</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D110" s="4">
         <v>5882</v>
@@ -5629,22 +5615,22 @@
       <c r="K110" s="4">
         <v>9.09</v>
       </c>
-      <c r="L110" s="9">
+      <c r="L110" s="6">
         <f>(SUM(J110:J111))/2</f>
         <v>15.225947203600047</v>
       </c>
-      <c r="M110" s="9">
+      <c r="M110" s="6">
         <f>STDEV(J110:J111)</f>
         <v>9.8636517270419086E-3</v>
       </c>
-      <c r="N110" s="11"/>
-      <c r="O110" s="11"/>
+      <c r="N110" s="7"/>
+      <c r="O110" s="7"/>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
       <c r="C111" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D111" s="4">
         <v>5466</v>
@@ -5671,20 +5657,20 @@
       <c r="K111" s="4">
         <v>9.09</v>
       </c>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="11"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="7"/>
+      <c r="O111" s="7"/>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C112" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>127</v>
       </c>
       <c r="D112" s="4">
         <v>5981</v>
@@ -5711,22 +5697,22 @@
       <c r="K112" s="4">
         <v>9.09</v>
       </c>
-      <c r="L112" s="9">
+      <c r="L112" s="6">
         <f>(SUM(J112:J113))/2</f>
         <v>15.622242101125497</v>
       </c>
-      <c r="M112" s="9">
+      <c r="M112" s="6">
         <f>STDEV(J112:J113)</f>
         <v>0.16203103779959543</v>
       </c>
-      <c r="N112" s="11"/>
-      <c r="O112" s="11"/>
+      <c r="N112" s="7"/>
+      <c r="O112" s="7"/>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
       <c r="C113" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D113" s="4">
         <v>5027</v>
@@ -5753,13 +5739,221 @@
       <c r="K113" s="4">
         <v>9.09</v>
       </c>
-      <c r="L113" s="10"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="10"/>
-      <c r="O113" s="10"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="232">
+    <mergeCell ref="B82:B83"/>
+    <mergeCell ref="A82:A83"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="A90:A91"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="L86:L87"/>
+    <mergeCell ref="M86:M87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="L88:L89"/>
+    <mergeCell ref="M88:M89"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="A84:A85"/>
+    <mergeCell ref="L84:L85"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="L82:L83"/>
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="M110:M111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="L112:L113"/>
+    <mergeCell ref="M112:M113"/>
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="A106:A107"/>
+    <mergeCell ref="L106:L107"/>
+    <mergeCell ref="M106:M107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="A108:A109"/>
+    <mergeCell ref="L108:L109"/>
+    <mergeCell ref="M108:M109"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A104:A105"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="A100:A101"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="A94:A95"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="B92:B93"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="L92:L93"/>
+    <mergeCell ref="M92:M93"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="M58:M59"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="M48:M49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="M44:M45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
     <mergeCell ref="N32:N61"/>
     <mergeCell ref="O32:O61"/>
     <mergeCell ref="N92:N113"/>
@@ -5784,214 +5978,6 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="L10:L11"/>
     <mergeCell ref="M10:M11"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="M44:M45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="M48:M49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="B92:B93"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="L92:L93"/>
-    <mergeCell ref="M92:M93"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="M58:M59"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="L98:L99"/>
-    <mergeCell ref="M98:M99"/>
-    <mergeCell ref="B94:B95"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="L94:L95"/>
-    <mergeCell ref="M94:M95"/>
-    <mergeCell ref="B96:B97"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="L96:L97"/>
-    <mergeCell ref="M96:M97"/>
-    <mergeCell ref="B104:B105"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="L104:L105"/>
-    <mergeCell ref="M104:M105"/>
-    <mergeCell ref="B100:B101"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="L100:L101"/>
-    <mergeCell ref="M100:M101"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="M102:M103"/>
-    <mergeCell ref="B110:B111"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="M110:M111"/>
-    <mergeCell ref="B112:B113"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="L112:L113"/>
-    <mergeCell ref="M112:M113"/>
-    <mergeCell ref="B106:B107"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="L106:L107"/>
-    <mergeCell ref="M106:M107"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="L108:L109"/>
-    <mergeCell ref="M108:M109"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="L90:L91"/>
-    <mergeCell ref="M90:M91"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="L86:L87"/>
-    <mergeCell ref="M86:M87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="L88:L89"/>
-    <mergeCell ref="M88:M89"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="L84:L85"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="L82:L83"/>
-    <mergeCell ref="M82:M83"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
